--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -372,14 +375,16 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -401,7 +406,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -409,26 +414,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +455,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -458,34 +463,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/epiType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/epiType</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T15:04:58+00:00</t>
+    <t>2022-12-14T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-epiType.xlsx
+++ b/ValueSet-epiType.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from rmswi" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from LOINC" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,31 +99,22 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>100000155538</t>
-  </si>
-  <si>
-    <t>Package Leaflet</t>
+    <t>34390-5</t>
+  </si>
+  <si>
+    <t>HUMAN OTC DRUG LABEL</t>
+  </si>
+  <si>
+    <t>34391-3</t>
+  </si>
+  <si>
+    <t>HUMAN PRESCRIPTION DRUG LABEL</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/rmswi</t>
-  </si>
-  <si>
-    <t>34390-5</t>
-  </si>
-  <si>
-    <t>HUMAN OTC DRUG LABEL</t>
-  </si>
-  <si>
-    <t>34391-3</t>
-  </si>
-  <si>
-    <t>HUMAN PRESCRIPTION DRUG LABEL</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -394,55 +384,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -463,34 +404,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
